--- a/data/Table1.HDI&Components.xlsx
+++ b/data/Table1.HDI&Components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\Visualisarion-of-Human-Development-Data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A734B4B-5D90-4ED5-B76D-105F32E5F498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA69092-1AEA-426E-8A4D-BFF053402A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="211">
   <si>
     <t>Norway</t>
   </si>
@@ -641,9 +641,6 @@
     <t>GNI per capita rank minus HDI rank</t>
   </si>
   <si>
-    <t>HDI rank</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -660,6 +657,12 @@
   </si>
   <si>
     <t>Other Countries Or Territories</t>
+  </si>
+  <si>
+    <t>HDI rank2018</t>
+  </si>
+  <si>
+    <t>HDI rank2017</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1048,10 @@
   <dimension ref="A1:J259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E182" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J193" sqref="J193"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1068,10 +1071,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>197</v>
@@ -1092,7 +1095,7 @@
         <v>202</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>196</v>
@@ -1127,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1159,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1191,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1223,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1255,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1287,7 +1290,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1319,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1351,7 +1354,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1383,7 +1386,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1415,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1447,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1479,7 +1482,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1511,7 +1514,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1543,7 +1546,7 @@
         <v>14</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1575,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1607,7 +1610,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1639,7 +1642,7 @@
         <v>17</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1671,7 +1674,7 @@
         <v>18</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1703,7 +1706,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1735,7 +1738,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1767,7 +1770,7 @@
         <v>21</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1799,7 +1802,7 @@
         <v>22</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1831,7 +1834,7 @@
         <v>22</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1863,7 +1866,7 @@
         <v>24</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1895,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1927,7 +1930,7 @@
         <v>27</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1959,7 +1962,7 @@
         <v>26</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1991,7 +1994,7 @@
         <v>28</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2023,7 +2026,7 @@
         <v>29</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2055,7 +2058,7 @@
         <v>30</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2087,7 +2090,7 @@
         <v>31</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2119,7 +2122,7 @@
         <v>31</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2151,7 +2154,7 @@
         <v>33</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2183,7 +2186,7 @@
         <v>34</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2215,7 +2218,7 @@
         <v>35</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2247,7 +2250,7 @@
         <v>38</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2279,7 +2282,7 @@
         <v>36</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2311,7 +2314,7 @@
         <v>37</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2343,7 +2346,7 @@
         <v>39</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2375,7 +2378,7 @@
         <v>40</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2407,7 +2410,7 @@
         <v>40</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2439,7 +2442,7 @@
         <v>42</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2471,7 +2474,7 @@
         <v>43</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2503,7 +2506,7 @@
         <v>44</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2535,7 +2538,7 @@
         <v>45</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2567,7 +2570,7 @@
         <v>46</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2599,7 +2602,7 @@
         <v>47</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2631,7 +2634,7 @@
         <v>48</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2663,7 +2666,7 @@
         <v>49</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2695,7 +2698,7 @@
         <v>50</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2727,7 +2730,7 @@
         <v>51</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2759,7 +2762,7 @@
         <v>51</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2791,7 +2794,7 @@
         <v>51</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2823,7 +2826,7 @@
         <v>51</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2855,7 +2858,7 @@
         <v>56</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2887,7 +2890,7 @@
         <v>51</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -2919,7 +2922,7 @@
         <v>57</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2951,7 +2954,7 @@
         <v>58</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2983,7 +2986,7 @@
         <v>59</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3015,7 +3018,7 @@
         <v>60</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3047,7 +3050,7 @@
         <v>61</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3079,7 +3082,7 @@
         <v>62</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3111,7 +3114,7 @@
         <v>65</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3143,7 +3146,7 @@
         <v>63</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3175,7 +3178,7 @@
         <v>63</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3207,7 +3210,7 @@
         <v>66</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3239,7 +3242,7 @@
         <v>66</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3271,7 +3274,7 @@
         <v>68</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3303,7 +3306,7 @@
         <v>69</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3335,7 +3338,7 @@
         <v>70</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3367,7 +3370,7 @@
         <v>72</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3399,7 +3402,7 @@
         <v>71</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3431,7 +3434,7 @@
         <v>73</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3463,7 +3466,7 @@
         <v>73</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3495,7 +3498,7 @@
         <v>75</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3527,7 +3530,7 @@
         <v>76</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3559,7 +3562,7 @@
         <v>77</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3591,7 +3594,7 @@
         <v>78</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3623,7 +3626,7 @@
         <v>78</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3655,7 +3658,7 @@
         <v>78</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3687,7 +3690,7 @@
         <v>81</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -3719,7 +3722,7 @@
         <v>81</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -3751,7 +3754,7 @@
         <v>81</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -3783,7 +3786,7 @@
         <v>85</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3815,7 +3818,7 @@
         <v>86</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3847,7 +3850,7 @@
         <v>84</v>
       </c>
       <c r="J87" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -3879,7 +3882,7 @@
         <v>87</v>
       </c>
       <c r="J88" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -3911,7 +3914,7 @@
         <v>88</v>
       </c>
       <c r="J89" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -3943,7 +3946,7 @@
         <v>90</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -3975,7 +3978,7 @@
         <v>89</v>
       </c>
       <c r="J91" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -4007,7 +4010,7 @@
         <v>91</v>
       </c>
       <c r="J92" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -4039,7 +4042,7 @@
         <v>94</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4071,7 +4074,7 @@
         <v>93</v>
       </c>
       <c r="J94" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -4103,7 +4106,7 @@
         <v>97</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4135,7 +4138,7 @@
         <v>95</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4167,7 +4170,7 @@
         <v>96</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -4199,7 +4202,7 @@
         <v>92</v>
       </c>
       <c r="J98" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -4231,7 +4234,7 @@
         <v>98</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4263,7 +4266,7 @@
         <v>102</v>
       </c>
       <c r="J100" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -4295,7 +4298,7 @@
         <v>99</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -4327,7 +4330,7 @@
         <v>99</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -4359,7 +4362,7 @@
         <v>99</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -4391,7 +4394,7 @@
         <v>103</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -4423,7 +4426,7 @@
         <v>105</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -4455,7 +4458,7 @@
         <v>104</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -4487,7 +4490,7 @@
         <v>106</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -4519,7 +4522,7 @@
         <v>106</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -4551,7 +4554,7 @@
         <v>108</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -4583,7 +4586,7 @@
         <v>109</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -4615,7 +4618,7 @@
         <v>111</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -4647,7 +4650,7 @@
         <v>111</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -4679,7 +4682,7 @@
         <v>110</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -4711,7 +4714,7 @@
         <v>111</v>
       </c>
       <c r="J114" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -4743,7 +4746,7 @@
         <v>114</v>
       </c>
       <c r="J115" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -4775,7 +4778,7 @@
         <v>114</v>
       </c>
       <c r="J116" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -4807,7 +4810,7 @@
         <v>116</v>
       </c>
       <c r="J117" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -4839,7 +4842,7 @@
         <v>116</v>
       </c>
       <c r="J118" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -4871,7 +4874,7 @@
         <v>118</v>
       </c>
       <c r="J119" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -4903,7 +4906,7 @@
         <v>119</v>
       </c>
       <c r="J120" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -4935,7 +4938,7 @@
         <v>120</v>
       </c>
       <c r="J121" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -4967,7 +4970,7 @@
         <v>121</v>
       </c>
       <c r="J122" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -4999,7 +5002,7 @@
         <v>122</v>
       </c>
       <c r="J123" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -5031,7 +5034,7 @@
         <v>123</v>
       </c>
       <c r="J124" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -5063,7 +5066,7 @@
         <v>124</v>
       </c>
       <c r="J125" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -5095,7 +5098,7 @@
         <v>126</v>
       </c>
       <c r="J126" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -5127,7 +5130,7 @@
         <v>128</v>
       </c>
       <c r="J127" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -5159,7 +5162,7 @@
         <v>127</v>
       </c>
       <c r="J128" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -5191,7 +5194,7 @@
         <v>125</v>
       </c>
       <c r="J129" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -5223,7 +5226,7 @@
         <v>129</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -5255,7 +5258,7 @@
         <v>129</v>
       </c>
       <c r="J131" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -5287,7 +5290,7 @@
         <v>131</v>
       </c>
       <c r="J132" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -5319,7 +5322,7 @@
         <v>133</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -5351,7 +5354,7 @@
         <v>132</v>
       </c>
       <c r="J134" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -5383,7 +5386,7 @@
         <v>134</v>
       </c>
       <c r="J135" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -5415,7 +5418,7 @@
         <v>136</v>
       </c>
       <c r="J136" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -5447,7 +5450,7 @@
         <v>135</v>
       </c>
       <c r="J137" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -5479,7 +5482,7 @@
         <v>138</v>
       </c>
       <c r="J138" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -5511,7 +5514,7 @@
         <v>136</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -5543,7 +5546,7 @@
         <v>138</v>
       </c>
       <c r="J140" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -5575,7 +5578,7 @@
         <v>140</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -5607,7 +5610,7 @@
         <v>141</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -5639,7 +5642,7 @@
         <v>142</v>
       </c>
       <c r="J143" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -5671,7 +5674,7 @@
         <v>144</v>
       </c>
       <c r="J144" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -5703,7 +5706,7 @@
         <v>143</v>
       </c>
       <c r="J145" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -5735,7 +5738,7 @@
         <v>146</v>
       </c>
       <c r="J146" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -5767,7 +5770,7 @@
         <v>145</v>
       </c>
       <c r="J147" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -5799,7 +5802,7 @@
         <v>148</v>
       </c>
       <c r="J148" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -5831,7 +5834,7 @@
         <v>148</v>
       </c>
       <c r="J149" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -5863,7 +5866,7 @@
         <v>147</v>
       </c>
       <c r="J150" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -5895,7 +5898,7 @@
         <v>150</v>
       </c>
       <c r="J151" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -5927,7 +5930,7 @@
         <v>153</v>
       </c>
       <c r="J152" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -5959,7 +5962,7 @@
         <v>151</v>
       </c>
       <c r="J153" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -5991,7 +5994,7 @@
         <v>152</v>
       </c>
       <c r="J154" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -6023,7 +6026,7 @@
         <v>154</v>
       </c>
       <c r="J155" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -6055,7 +6058,7 @@
         <v>155</v>
       </c>
       <c r="J156" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -6087,7 +6090,7 @@
         <v>156</v>
       </c>
       <c r="J157" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -6119,7 +6122,7 @@
         <v>158</v>
       </c>
       <c r="J158" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -6151,7 +6154,7 @@
         <v>157</v>
       </c>
       <c r="J159" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -6183,7 +6186,7 @@
         <v>160</v>
       </c>
       <c r="J160" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -6215,7 +6218,7 @@
         <v>160</v>
       </c>
       <c r="J161" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -6247,7 +6250,7 @@
         <v>159</v>
       </c>
       <c r="J162" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -6279,7 +6282,7 @@
         <v>162</v>
       </c>
       <c r="J163" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -6311,7 +6314,7 @@
         <v>163</v>
       </c>
       <c r="J164" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -6343,7 +6346,7 @@
         <v>164</v>
       </c>
       <c r="J165" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -6375,7 +6378,7 @@
         <v>165</v>
       </c>
       <c r="J166" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -6407,7 +6410,7 @@
         <v>166</v>
       </c>
       <c r="J167" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -6439,7 +6442,7 @@
         <v>166</v>
       </c>
       <c r="J168" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -6471,7 +6474,7 @@
         <v>168</v>
       </c>
       <c r="J169" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -6503,7 +6506,7 @@
         <v>169</v>
       </c>
       <c r="J170" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -6535,7 +6538,7 @@
         <v>170</v>
       </c>
       <c r="J171" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -6567,7 +6570,7 @@
         <v>171</v>
       </c>
       <c r="J172" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -6599,7 +6602,7 @@
         <v>172</v>
       </c>
       <c r="J173" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -6631,7 +6634,7 @@
         <v>173</v>
       </c>
       <c r="J174" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -6663,7 +6666,7 @@
         <v>178</v>
       </c>
       <c r="J175" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -6695,7 +6698,7 @@
         <v>175</v>
       </c>
       <c r="J176" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -6727,7 +6730,7 @@
         <v>173</v>
       </c>
       <c r="J177" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -6759,7 +6762,7 @@
         <v>175</v>
       </c>
       <c r="J178" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -6791,7 +6794,7 @@
         <v>177</v>
       </c>
       <c r="J179" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -6823,7 +6826,7 @@
         <v>179</v>
       </c>
       <c r="J180" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -6855,7 +6858,7 @@
         <v>180</v>
       </c>
       <c r="J181" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -6887,7 +6890,7 @@
         <v>181</v>
       </c>
       <c r="J182" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -6919,7 +6922,7 @@
         <v>183</v>
       </c>
       <c r="J183" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -6951,7 +6954,7 @@
         <v>182</v>
       </c>
       <c r="J184" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -6983,7 +6986,7 @@
         <v>184</v>
       </c>
       <c r="J185" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -7015,7 +7018,7 @@
         <v>185</v>
       </c>
       <c r="J186" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -7047,7 +7050,7 @@
         <v>186</v>
       </c>
       <c r="J187" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -7079,7 +7082,7 @@
         <v>187</v>
       </c>
       <c r="J188" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -7111,7 +7114,7 @@
         <v>188</v>
       </c>
       <c r="J189" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -7143,7 +7146,7 @@
         <v>189</v>
       </c>
       <c r="J190" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -7175,7 +7178,7 @@
         <v>190</v>
       </c>
       <c r="J191" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -7207,7 +7210,7 @@
         <v>190</v>
       </c>
       <c r="J192" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -7239,7 +7242,7 @@
         <v>190</v>
       </c>
       <c r="J193" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -7271,7 +7274,7 @@
         <v>190</v>
       </c>
       <c r="J194" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -7303,7 +7306,7 @@
         <v>190</v>
       </c>
       <c r="J195" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -7335,7 +7338,7 @@
         <v>190</v>
       </c>
       <c r="J196" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
